--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshay\Solar App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4531582F-DA8C-43F1-9527-F93030FF7885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E677154-7CA9-4684-B52F-8DBDE45562AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A94ECE37-B775-4747-8AA0-FC53F3E25D77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin@example.com</t>
-  </si>
-  <si>
-    <t>admin123</t>
   </si>
   <si>
     <t>Employee 1</t>
@@ -438,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6E431C-A51A-4E3E-8DB3-AD3C64DE0AB5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,51 +451,39 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AED28082-1CD0-41A3-B98A-EB0709EC33E6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF4689DC-80D0-4CC9-9723-3B0DE07A7BEA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{8BFCEF33-3D77-4DB4-9E9A-9471989BCDC6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{AAD5E907-75B4-430E-95E7-F2C271A39B78}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CF4689DC-80D0-4CC9-9723-3B0DE07A7BEA}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8BFCEF33-3D77-4DB4-9E9A-9471989BCDC6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AAD5E907-75B4-430E-95E7-F2C271A39B78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
